--- a/formulas.xlsx
+++ b/formulas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Click</t>
   </si>
@@ -118,12 +118,30 @@
   </si>
   <si>
     <t>r*rb</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Time to produce an Egg</t>
+  </si>
+  <si>
+    <t>Bread Consumption</t>
+  </si>
+  <si>
+    <t>Purchase Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,9 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -463,107 +483,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>F2*I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3">
+        <f>(I3+10)*10</f>
+        <v>110</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>F3*I3</f>
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>6.8287037037037025E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G13" si="0">(I4+10)*10</f>
+        <v>200</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <f>F4*I4</f>
+        <v>500</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.7129629629629603E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <f>F5*I5</f>
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6.5972222222222203E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <f>F6*I6</f>
+        <v>1500</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6.4814814814814802E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <f>F7*I7</f>
+        <v>2000</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6.3657407407407304E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <f>F8*I8</f>
+        <v>2500</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8" s="2">
+        <v>6.2499999999999904E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>3000</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6.1342592592592503E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>3500</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6.0185185185185103E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <v>4000</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5.9027777777777605E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>90</v>
+      </c>
+      <c r="J12">
+        <v>4500</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5.7870370370370205E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>5000</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5.6712962962962804E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -571,7 +863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -623,6 +915,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
